--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6316256B-2359-4C54-B565-1F96587D9350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E6C52-A5AC-4BDE-8533-8A52A70A68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,11 +670,11 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2=0,"Não iniciado",IF(D2&lt;C2,"Em andamento","Concluído"))</f>
-        <v>Em andamento</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -703,11 +703,11 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E52" si="0">IF(D3=0,"Não iniciado",IF(D3&lt;C3,"Em andamento","Concluído"))</f>
-        <v>Em andamento</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -835,11 +835,11 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>Em andamento</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -868,11 +868,11 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -901,11 +901,11 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1132,11 +1132,11 @@
         <v>75</v>
       </c>
       <c r="D16">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1264,11 +1264,11 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,11 +1297,11 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1330,11 +1330,11 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1363,11 +1363,11 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1396,11 +1396,11 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1693,11 +1693,11 @@
         <v>30</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1792,11 +1792,11 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H36">
         <v>0</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E6C52-A5AC-4BDE-8533-8A52A70A68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FF61CD-52CC-465E-91EB-8708899BF904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,11 +835,11 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
+        <v>Concluído</v>
       </c>
       <c r="H7">
         <v>0</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FF61CD-52CC-465E-91EB-8708899BF904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC63585-4119-44EB-B32A-4BF4F5532996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,11 +835,11 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>Concluído</v>
+        <v>Não iniciado</v>
       </c>
       <c r="H7">
         <v>0</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF786431-E8C3-405D-83F3-64380D73C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077FDA6E-4EA8-4866-98AE-FC976690AD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_corrigidos" sheetId="1" r:id="rId1"/>
@@ -404,15 +404,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +732,7 @@
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="10" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="21.21875" bestFit="1" customWidth="1"/>
@@ -786,16 +787,20 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>IF(D2=0,"Não iniciado",IF(D2&lt;C2,"Em andamento","Concluído"))</f>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45878</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45878</v>
+      </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>60</v>
@@ -821,16 +826,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(D3=0,"Não iniciado",IF(D3&lt;C3,"Em andamento","Concluído"))</f>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45878</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45878</v>
+      </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>60</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077FDA6E-4EA8-4866-98AE-FC976690AD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B78F7-9FD6-4CCB-9337-6423FCDAC18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,16 +865,20 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>Em andamento</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45878</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45878</v>
+      </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>60</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B78F7-9FD6-4CCB-9337-6423FCDAC18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D5BA9-6AD2-45A5-9430-47BECF8A469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,11 +865,11 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Em andamento</v>
+        <v>Concluído</v>
       </c>
       <c r="F4" s="4">
         <v>45878</v>
@@ -878,7 +878,7 @@
         <v>45878</v>
       </c>
       <c r="H4" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>60</v>
@@ -1394,16 +1394,20 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45878</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45878</v>
+      </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>60</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D5BA9-6AD2-45A5-9430-47BECF8A469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ACD533-4EFF-4C7B-9EA2-66DB5AAE70D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,10 +862,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ACD533-4EFF-4C7B-9EA2-66DB5AAE70D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B69D8-63CF-4B5D-9CB0-41B164F08523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -414,6 +414,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +732,7 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="10" max="11" width="8.88671875" customWidth="1"/>
@@ -2098,16 +2099,18 @@
         <v>24</v>
       </c>
       <c r="D39" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>Em andamento</v>
+      </c>
+      <c r="F39" s="5">
+        <v>45878.416666666664</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>60</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B69D8-63CF-4B5D-9CB0-41B164F08523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959F9ED1-B15E-4DD6-91C0-3E3E775903D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,13 +905,15 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>Em andamento</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45878</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
         <v>0</v>
@@ -1360,16 +1362,20 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F18" s="4">
+        <v>46974</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45879</v>
+      </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>60</v>
@@ -1790,10 +1796,14 @@
         <f t="shared" si="0"/>
         <v>Não iniciado</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="4">
+        <v>45878</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45879</v>
+      </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>60</v>
@@ -1819,16 +1829,20 @@
         <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F31" s="4">
+        <v>45878</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45879</v>
+      </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>60</v>
@@ -1854,11 +1868,11 @@
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
+        <v>Concluído</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2099,18 +2113,20 @@
         <v>24</v>
       </c>
       <c r="D39" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Em andamento</v>
+        <v>Concluído</v>
       </c>
       <c r="F39" s="5">
         <v>45878.416666666664</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="4">
+        <v>45879</v>
+      </c>
       <c r="H39" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>60</v>
@@ -2773,16 +2789,20 @@
         <v>9</v>
       </c>
       <c r="D60" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F60" s="4">
+        <v>45878</v>
+      </c>
+      <c r="G60" s="4">
+        <v>45879</v>
+      </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>60</v>
@@ -3239,16 +3259,20 @@
         <v>1</v>
       </c>
       <c r="D78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F78" s="4">
+        <v>45878</v>
+      </c>
+      <c r="G78" s="4">
+        <v>45879</v>
+      </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>60</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959F9ED1-B15E-4DD6-91C0-3E3E775903D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25343D6-BCF4-4611-94F6-AE094C38C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,18 +905,20 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Em andamento</v>
+        <v>Concluído</v>
       </c>
       <c r="F5" s="4">
         <v>45878</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="4">
+        <v>45879</v>
+      </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>60</v>
@@ -2152,16 +2154,18 @@
         <v>12</v>
       </c>
       <c r="D40" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>Em andamento</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45879</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>60</v>
@@ -2819,16 +2823,20 @@
         <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F61" s="4">
+        <v>45878</v>
+      </c>
+      <c r="G61" s="4">
+        <v>45879</v>
+      </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>60</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25343D6-BCF4-4611-94F6-AE094C38C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF83543-0F18-4CFA-859D-0E6238A29AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2471,16 +2471,20 @@
         <v>1</v>
       </c>
       <c r="D49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F49" s="4">
+        <v>45879</v>
+      </c>
+      <c r="G49" s="4">
+        <v>45879</v>
+      </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>60</v>
@@ -2506,16 +2510,20 @@
         <v>1</v>
       </c>
       <c r="D50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+        <v>Concluído</v>
+      </c>
+      <c r="F50" s="4">
+        <v>45879</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45879</v>
+      </c>
       <c r="H50" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>60</v>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF83543-0F18-4CFA-859D-0E6238A29AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AD2B9C-A402-4027-8E71-B085DDE53D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,13 +722,13 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.21875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
@@ -976,14 +976,14 @@
         <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
+        <v>Em andamento</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1294,11 +1294,11 @@
         <v>75</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
+        <v>Em andamento</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1442,11 +1442,11 @@
         <v>30</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
+        <v>Em andamento</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2887,11 +2887,11 @@
         <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Não iniciado</v>
+        <v>Em andamento</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3093,11 +3093,11 @@
         <v>50</v>
       </c>
       <c r="D71" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E71" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Não iniciado</v>
+        <v>Em andamento</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>

--- a/Banco_Dashboard.xlsx
+++ b/Banco_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.almeida\Desktop\controle_atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AD2B9C-A402-4027-8E71-B085DDE53D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F93FD1-E8A0-4483-9409-5779A7F99599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_corrigidos" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,7 +979,7 @@
         <v>120</v>
       </c>
       <c r="D7" s="2">
-        <v>60</v>
+        <v>67.3</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1294,7 +1294,7 @@
         <v>75</v>
       </c>
       <c r="D16" s="2">
-        <v>5.7</v>
+        <v>12.9</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3093,7 +3093,7 @@
         <v>50</v>
       </c>
       <c r="D71" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E71" s="2" t="str">
         <f t="shared" si="1"/>
